--- a/Cours05/grille_4x3.xlsx
+++ b/Cours05/grille_4x3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\L3_2023-24\Cours05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{653C6D3B-66ED-43DD-A7AB-6CC925B81982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5999C5FD-189D-4724-A7FA-7BD861EAFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,16 +37,16 @@
     <t>…</t>
   </si>
   <si>
-    <t>[(0, 0),(0, 2), 
-(1, 1)]</t>
-  </si>
-  <si>
     <t>[(0, 0), (1, 1),
 (2, 0)]</t>
   </si>
   <si>
     <t>[(0, 1), (1, 2),
 (2, 1), (1, 0)]</t>
+  </si>
+  <si>
+    <t>[(0, 2), (1, 1), 
+(0, 0)]</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="178" zoomScaleNormal="178" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +496,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>2</v>
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>5</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>2</v>
